--- a/학습자료/단답형/국어_복습_3일차.xlsx
+++ b/학습자료/단답형/국어_복습_3일차.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">용사비등,「용과 뱀이 하늘로 날아오르다.」는 뜻으로, 살아 움직이듯 매우 활기찬 글씨 </t>
+          <t xml:space="preserve">용사비등,「용과 뱀이 하늘로 날아오르다」는 뜻으로, 살아 움직이듯 매우 활기찬 글씨 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -485,7 +485,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>화사첨족, 「뱀을 그리고 발을 더한다.」는 뜻으로, 하지 않아도 될 일을 하거나 필요(必要) 이상(以上)으로 쓸데 없는 일을 하여 도리어 실패(失敗)함.</t>
+          <t>화사첨족, 「뱀을 그리고 발을 더한다」는 뜻으로, 하지 않아도 될 일을 하거나 필요(必要) 이상(以上)으로 쓸데 없는 일을 하여 도리어 실패(失敗)함</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -507,7 +507,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">침소봉대,「바늘 만한 것을 몽둥이 만하다고 말함.」이란 뜻으로, 곧, 작은 일을 크게 과장(誇張)하여 말함을 이름. </t>
+          <t xml:space="preserve">침소봉대,「바늘 만한 것을 몽둥이 만하다고 말함」이란 뜻으로, 곧, 작은 일을 크게 과장(誇張)하여 말함을 이름 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3126,7 +3126,7 @@
       <c r="B123" t="inlineStr">
         <is>
           <t>견마지성, 「개나 말의 정성(精誠)」이라는 뜻으로, 임금이나 나라에 바치는 정성(精誠), 
-남에게 「자기(自己)가 바치는 정성(精誠)」을 아주 겸손(謙遜)하게 일컫는 말.</t>
+남에게 「자기(自己)가 바치는 정성(精誠)」을 아주 겸손(謙遜)하게 일컫는 말</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t xml:space="preserve">반포지효, 「까마귀 새끼가 자란 뒤에 늙은 어미에게 먹이를 물어다 주는 효성(孝誠)」이라는 뜻으로, 자식(子息)이 자라서 부모(父母)를 봉양(奉養)함. </t>
+          <t xml:space="preserve">반포지효, 「까마귀 새끼가 자란 뒤에 늙은 어미에게 먹이를 물어다 주는 효성(孝誠)」이라는 뜻으로, 자식(子息)이 자라서 부모(父母)를 봉양(奉養)함 </t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3258,7 +3258,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>간어제초, 「제(齊)나라와 초(楚)나라 사이」라는 뜻으로, 약(弱)한 자(者)가 강(強)한 자(者)들 사이에 끼여 괴로움을 받음을 이르는 말.</t>
+          <t>간어제초, 「제(齊)나라와 초(楚)나라 사이」라는 뜻으로, 약(弱)한 자(者)가 강(強)한 자(者)들 사이에 끼여 괴로움을 받음을 이르는 말</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3280,7 +3280,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>개세지재, 세상(世上)을 마음대로 다스릴 만한 뛰어난 재기(才氣). 또는 그러한 재기(才氣)를 가진 사람.</t>
+          <t>개세지재, 세상(世上)을 마음대로 다스릴 만한 뛰어난 재기(才氣) 또는 그러한 재기(才氣)를 가진 사람</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3473,8 +3473,8 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>1. 아주 귀찮게 구는 말이나 행동을 싫증 내지 않고 잘 받아 주는 일.
-2. [민속 ] 토속 신앙에서, 무당이 굿을 할 때 한 사람이 소리하면 다른 사람이 따라서 같은 소리를 받아 하는 일.</t>
+          <t>1) 아주 귀찮게 구는 말이나 행동을 싫증 내지 않고 잘 받아 주는 일
+2 [민속 ] 토속 신앙에서, 무당이 굿을 할 때 한 사람이 소리하면 다른 사람이 따라서 같은 소리를 받아 하는 일</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3496,7 +3496,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>자기만 혼자 잘나고 영악한 체하는 사람을 낮잡아 이르는 말.</t>
+          <t>자기만 혼자 잘나고 영악한 체하는 사람을 낮잡아 이르는 말</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -3518,7 +3518,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>이유 없이 남의 말에 반대하기를 좋아하는 사람을 얕잡아 이르는 말.</t>
+          <t>이유 없이 남의 말에 반대하기를 좋아하는 사람을 얕잡아 이르는 말</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -3540,8 +3540,8 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>1. 안쪽으로 오목하게 들어가거나 주름이 잡힌 물건.
-2. 마음씨가 바르지 못한 사람을 비유적으로 이르는 말.</t>
+          <t>1) 안쪽으로 오목하게 들어가거나 주름이 잡힌 물건
+2 마음씨가 바르지 못한 사람을 비유적으로 이르는 말</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">

--- a/학습자료/단답형/국어_복습_3일차.xlsx
+++ b/학습자료/단답형/국어_복습_3일차.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -3290,7 +3290,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
